--- a/graficos.xlsx
+++ b/graficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UFMS\2020 - 02\Algoritmos e Programação II\Ordenacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A228A2C-35E7-46A4-B2C7-35429B6396BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155E1CE9-D2FA-4A4B-AF07-5C66804718B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4817D011-5F5B-45E7-BB87-C747AB38BB46}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000\ &quot;s&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.000000\ &quot;s&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -89,7 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,25 +281,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.8249999999999998E-3</c:v>
+                  <c:v>1.7979999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32022800000000001</c:v>
+                  <c:v>0.28998400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.505173999999997</c:v>
+                  <c:v>32.214758000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.612256</c:v>
+                  <c:v>129.33591899999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>293.33332799999999</c:v>
+                  <c:v>292.79315400000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>523.598344</c:v>
+                  <c:v>521.11933599999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>818.87141499999996</c:v>
+                  <c:v>811.097666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,25 +386,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.4500000000000002E-4</c:v>
+                  <c:v>6.0700000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9666000000000006E-2</c:v>
+                  <c:v>6.5004999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3972519999999999</c:v>
+                  <c:v>6.34863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.576418</c:v>
+                  <c:v>25.300222999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.578657999999997</c:v>
+                  <c:v>57.331457999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.60269</c:v>
+                  <c:v>101.807485</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>161.356437</c:v>
+                  <c:v>160.027479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,25 +491,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.041E-3</c:v>
+                  <c:v>1.0859999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12873599999999999</c:v>
+                  <c:v>0.114805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.310829999999999</c:v>
+                  <c:v>11.215730000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.016404999999999</c:v>
+                  <c:v>44.781457000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.632762</c:v>
+                  <c:v>100.789835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.72149300000001</c:v>
+                  <c:v>179.243515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>282.91280599999999</c:v>
+                  <c:v>280.441844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,25 +596,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.7559999999999999E-3</c:v>
+                  <c:v>6.8770000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4367999999999999E-2</c:v>
+                  <c:v>8.1389000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74019100000000004</c:v>
+                  <c:v>0.73937200000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4691270000000001</c:v>
+                  <c:v>1.4492430000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2910560000000002</c:v>
+                  <c:v>2.155338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0213960000000002</c:v>
+                  <c:v>2.906393</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8757890000000002</c:v>
+                  <c:v>3.6280480000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,25 +701,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.7999999999999997E-5</c:v>
+                  <c:v>8.6000000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.911E-3</c:v>
+                  <c:v>1.433E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4318000000000001E-2</c:v>
+                  <c:v>1.5254E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8389E-2</c:v>
+                  <c:v>3.2890999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9097000000000002E-2</c:v>
+                  <c:v>4.7337999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6203000000000007E-2</c:v>
+                  <c:v>6.8249000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7329000000000004E-2</c:v>
+                  <c:v>8.5042000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,25 +1249,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.052E-3</c:v>
+                  <c:v>1.0480000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.115538</c:v>
+                  <c:v>0.114701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.543950000000001</c:v>
+                  <c:v>11.657641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.523507000000002</c:v>
+                  <c:v>46.345387000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.018224</c:v>
+                  <c:v>104.411637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186.902782</c:v>
+                  <c:v>185.52692400000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>293.88425100000001</c:v>
+                  <c:v>290.829815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,25 +1354,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>3.9999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0499999999999999E-4</c:v>
+                  <c:v>3.19E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3400000000000001E-4</c:v>
+                  <c:v>6.3699999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3599999999999998E-4</c:v>
+                  <c:v>9.3700000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2290000000000001E-3</c:v>
+                  <c:v>1.2310000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.534E-3</c:v>
+                  <c:v>1.5499999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,25 +1459,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.4899999999999997E-4</c:v>
+                  <c:v>9.3999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.108475</c:v>
+                  <c:v>9.9891999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.565626</c:v>
+                  <c:v>10.334622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.009315000000001</c:v>
+                  <c:v>41.430315999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.591513000000006</c:v>
+                  <c:v>93.479187999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.220215</c:v>
+                  <c:v>165.71999099999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>261.831007</c:v>
+                  <c:v>258.52911399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,25 +1564,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.4360000000000008E-3</c:v>
+                  <c:v>8.4329999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8824000000000005E-2</c:v>
+                  <c:v>7.1229000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.710928</c:v>
+                  <c:v>0.72365400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4859370000000001</c:v>
+                  <c:v>1.4639709999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2290830000000001</c:v>
+                  <c:v>2.194823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0428440000000001</c:v>
+                  <c:v>2.8652860000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8148049999999998</c:v>
+                  <c:v>3.573645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,25 +1669,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3110000000000001E-3</c:v>
+                  <c:v>2.2560000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25464300000000001</c:v>
+                  <c:v>0.25023000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.094382</c:v>
+                  <c:v>24.894880000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.625773</c:v>
+                  <c:v>100.526583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>226.464643</c:v>
+                  <c:v>224.19481999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>402.37950599999999</c:v>
+                  <c:v>398.93726500000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>629.46162000000004</c:v>
+                  <c:v>623.019947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,25 +2217,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.856E-3</c:v>
+                  <c:v>2.7929999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25694699999999998</c:v>
+                  <c:v>0.24415400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.579435</c:v>
+                  <c:v>24.332726999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.023536000000007</c:v>
+                  <c:v>97.191699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221.297414</c:v>
+                  <c:v>218.857291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394.35263200000003</c:v>
+                  <c:v>389.76867900000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>615.01528199999996</c:v>
+                  <c:v>608.52670599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2322,25 +2322,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.1590000000000001E-3</c:v>
+                  <c:v>1.137E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13520399999999999</c:v>
+                  <c:v>0.12567300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.742330000000001</c:v>
+                  <c:v>12.655355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.134098999999999</c:v>
+                  <c:v>50.846646999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.56899300000001</c:v>
+                  <c:v>114.40839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206.47366099999999</c:v>
+                  <c:v>204.12876</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>324.48910599999999</c:v>
+                  <c:v>320.52742899999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,25 +2427,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.3760000000000001E-3</c:v>
+                  <c:v>9.8200000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11638900000000001</c:v>
+                  <c:v>0.106929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.838321000000001</c:v>
+                  <c:v>10.724353000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.328856999999999</c:v>
+                  <c:v>43.122138999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.652511000000004</c:v>
+                  <c:v>96.856710000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.01290299999999</c:v>
+                  <c:v>172.48835</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>272.30098700000002</c:v>
+                  <c:v>269.513869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,25 +2532,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.8869999999999999E-3</c:v>
+                  <c:v>6.6150000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8897999999999996E-2</c:v>
+                  <c:v>7.1310999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72924599999999995</c:v>
+                  <c:v>0.74429400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5052239999999999</c:v>
+                  <c:v>1.4540169999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2409889999999999</c:v>
+                  <c:v>2.1930779999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.044448</c:v>
+                  <c:v>2.8544170000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8003369999999999</c:v>
+                  <c:v>3.5892599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,25 +2637,25 @@
                 <c:formatCode>0.000000\ "s"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.683E-3</c:v>
+                  <c:v>3.5079999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18940899999999999</c:v>
+                  <c:v>0.17848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.257366999999999</c:v>
+                  <c:v>18.175697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.217562999999998</c:v>
+                  <c:v>72.842116000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164.87972600000001</c:v>
+                  <c:v>163.65545700000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>293.45357799999999</c:v>
+                  <c:v>291.95003100000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>459.016324</c:v>
+                  <c:v>455.84320000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5104,7 +5104,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,19 +5144,19 @@
         <v>1000</v>
       </c>
       <c r="B3" s="1">
-        <v>1.052E-3</v>
+        <v>1.0480000000000001E-3</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0000000000000001E-6</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="D3" s="1">
-        <v>9.4899999999999997E-4</v>
+        <v>9.3999999999999997E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>8.4360000000000008E-3</v>
+        <v>8.4329999999999995E-3</v>
       </c>
       <c r="F3" s="1">
-        <v>2.3110000000000001E-3</v>
+        <v>2.2560000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5164,19 +5164,19 @@
         <v>10000</v>
       </c>
       <c r="B4" s="1">
-        <v>0.115538</v>
+        <v>0.114701</v>
       </c>
       <c r="C4" s="1">
         <v>3.1000000000000001E-5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.108475</v>
+        <v>9.9891999999999995E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>7.8824000000000005E-2</v>
+        <v>7.1229000000000001E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.25464300000000001</v>
+        <v>0.25023000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5184,19 +5184,19 @@
         <v>100000</v>
       </c>
       <c r="B5" s="1">
-        <v>14.543950000000001</v>
+        <v>11.657641</v>
       </c>
       <c r="C5" s="1">
-        <v>3.0499999999999999E-4</v>
+        <v>3.19E-4</v>
       </c>
       <c r="D5" s="1">
-        <v>10.565626</v>
+        <v>10.334622</v>
       </c>
       <c r="E5" s="1">
-        <v>0.710928</v>
+        <v>0.72365400000000002</v>
       </c>
       <c r="F5" s="1">
-        <v>25.094382</v>
+        <v>24.894880000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5204,19 +5204,19 @@
         <v>200000</v>
       </c>
       <c r="B6" s="1">
-        <v>47.523507000000002</v>
+        <v>46.345387000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>6.3400000000000001E-4</v>
+        <v>6.3699999999999998E-4</v>
       </c>
       <c r="D6" s="1">
-        <v>42.009315000000001</v>
+        <v>41.430315999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>1.4859370000000001</v>
+        <v>1.4639709999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>100.625773</v>
+        <v>100.526583</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5224,19 +5224,19 @@
         <v>300000</v>
       </c>
       <c r="B7" s="1">
-        <v>105.018224</v>
+        <v>104.411637</v>
       </c>
       <c r="C7" s="1">
-        <v>9.3599999999999998E-4</v>
+        <v>9.3700000000000001E-4</v>
       </c>
       <c r="D7" s="1">
-        <v>94.591513000000006</v>
+        <v>93.479187999999994</v>
       </c>
       <c r="E7" s="1">
-        <v>2.2290830000000001</v>
+        <v>2.194823</v>
       </c>
       <c r="F7" s="1">
-        <v>226.464643</v>
+        <v>224.19481999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -5244,19 +5244,19 @@
         <v>400000</v>
       </c>
       <c r="B8" s="1">
-        <v>186.902782</v>
+        <v>185.52692400000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1.2290000000000001E-3</v>
+        <v>1.2310000000000001E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>167.220215</v>
+        <v>165.71999099999999</v>
       </c>
       <c r="E8" s="1">
-        <v>3.0428440000000001</v>
+        <v>2.8652860000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>402.37950599999999</v>
+        <v>398.93726500000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5264,19 +5264,19 @@
         <v>500000</v>
       </c>
       <c r="B9" s="1">
-        <v>293.88425100000001</v>
+        <v>290.829815</v>
       </c>
       <c r="C9" s="1">
-        <v>1.534E-3</v>
+        <v>1.5499999999999999E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>261.831007</v>
+        <v>258.52911399999999</v>
       </c>
       <c r="E9" s="1">
-        <v>3.8148049999999998</v>
+        <v>3.573645</v>
       </c>
       <c r="F9" s="1">
-        <v>629.46162000000004</v>
+        <v>623.019947</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5312,19 +5312,19 @@
         <v>1000</v>
       </c>
       <c r="B13" s="1">
-        <v>2.856E-3</v>
+        <v>2.7929999999999999E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>1.1590000000000001E-3</v>
+        <v>1.137E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>1.3760000000000001E-3</v>
+        <v>9.8200000000000002E-4</v>
       </c>
       <c r="E13" s="1">
-        <v>6.8869999999999999E-3</v>
+        <v>6.6150000000000002E-3</v>
       </c>
       <c r="F13" s="1">
-        <v>1.683E-3</v>
+        <v>3.5079999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,19 +5332,19 @@
         <v>10000</v>
       </c>
       <c r="B14" s="1">
-        <v>0.25694699999999998</v>
+        <v>0.24415400000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>0.13520399999999999</v>
+        <v>0.12567300000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>0.11638900000000001</v>
+        <v>0.106929</v>
       </c>
       <c r="E14" s="1">
-        <v>7.8897999999999996E-2</v>
+        <v>7.1310999999999999E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>0.18940899999999999</v>
+        <v>0.17848</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5352,19 +5352,19 @@
         <v>100000</v>
       </c>
       <c r="B15" s="1">
-        <v>24.579435</v>
+        <v>24.332726999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>12.742330000000001</v>
+        <v>12.655355</v>
       </c>
       <c r="D15" s="1">
-        <v>10.838321000000001</v>
+        <v>10.724353000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.72924599999999995</v>
+        <v>0.74429400000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>18.257366999999999</v>
+        <v>18.175697</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,19 +5372,19 @@
         <v>200000</v>
       </c>
       <c r="B16" s="1">
-        <v>98.023536000000007</v>
+        <v>97.191699</v>
       </c>
       <c r="C16" s="1">
-        <v>51.134098999999999</v>
+        <v>50.846646999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>43.328856999999999</v>
+        <v>43.122138999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>1.5052239999999999</v>
+        <v>1.4540169999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>73.217562999999998</v>
+        <v>72.842116000000004</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5392,19 +5392,19 @@
         <v>300000</v>
       </c>
       <c r="B17" s="1">
-        <v>221.297414</v>
+        <v>218.857291</v>
       </c>
       <c r="C17" s="1">
-        <v>116.56899300000001</v>
+        <v>114.40839</v>
       </c>
       <c r="D17" s="1">
-        <v>97.652511000000004</v>
+        <v>96.856710000000007</v>
       </c>
       <c r="E17" s="1">
-        <v>2.2409889999999999</v>
+        <v>2.1930779999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>164.87972600000001</v>
+        <v>163.65545700000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5412,19 +5412,19 @@
         <v>400000</v>
       </c>
       <c r="B18" s="1">
-        <v>394.35263200000003</v>
+        <v>389.76867900000002</v>
       </c>
       <c r="C18" s="1">
-        <v>206.47366099999999</v>
+        <v>204.12876</v>
       </c>
       <c r="D18" s="1">
-        <v>174.01290299999999</v>
+        <v>172.48835</v>
       </c>
       <c r="E18" s="1">
-        <v>3.044448</v>
+        <v>2.8544170000000002</v>
       </c>
       <c r="F18" s="1">
-        <v>293.45357799999999</v>
+        <v>291.95003100000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5432,19 +5432,19 @@
         <v>500000</v>
       </c>
       <c r="B19" s="1">
-        <v>615.01528199999996</v>
+        <v>608.52670599999999</v>
       </c>
       <c r="C19" s="1">
-        <v>324.48910599999999</v>
+        <v>320.52742899999998</v>
       </c>
       <c r="D19" s="1">
-        <v>272.30098700000002</v>
+        <v>269.513869</v>
       </c>
       <c r="E19" s="1">
-        <v>3.8003369999999999</v>
+        <v>3.5892599999999999</v>
       </c>
       <c r="F19" s="1">
-        <v>459.016324</v>
+        <v>455.84320000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5480,19 +5480,19 @@
         <v>1000</v>
       </c>
       <c r="B23" s="1">
-        <v>2.8249999999999998E-3</v>
+        <v>1.7979999999999999E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>5.4500000000000002E-4</v>
+        <v>6.0700000000000001E-4</v>
       </c>
       <c r="D23" s="1">
-        <v>1.041E-3</v>
+        <v>1.0859999999999999E-3</v>
       </c>
       <c r="E23" s="1">
-        <v>8.7559999999999999E-3</v>
+        <v>6.8770000000000003E-3</v>
       </c>
       <c r="F23" s="1">
-        <v>9.7999999999999997E-5</v>
+        <v>8.6000000000000003E-5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5500,19 +5500,19 @@
         <v>10000</v>
       </c>
       <c r="B24" s="1">
-        <v>0.32022800000000001</v>
+        <v>0.28998400000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>6.9666000000000006E-2</v>
+        <v>6.5004999999999993E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>0.12873599999999999</v>
+        <v>0.114805</v>
       </c>
       <c r="E24" s="1">
-        <v>8.4367999999999999E-2</v>
+        <v>8.1389000000000003E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>2.911E-3</v>
+        <v>1.433E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5520,19 +5520,19 @@
         <v>100000</v>
       </c>
       <c r="B25" s="1">
-        <v>32.505173999999997</v>
+        <v>32.214758000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>6.3972519999999999</v>
+        <v>6.34863</v>
       </c>
       <c r="D25" s="1">
-        <v>11.310829999999999</v>
+        <v>11.215730000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.74019100000000004</v>
+        <v>0.73937200000000003</v>
       </c>
       <c r="F25" s="1">
-        <v>1.4318000000000001E-2</v>
+        <v>1.5254E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5540,19 +5540,19 @@
         <v>200000</v>
       </c>
       <c r="B26" s="1">
-        <v>130.612256</v>
+        <v>129.33591899999999</v>
       </c>
       <c r="C26" s="1">
-        <v>25.576418</v>
+        <v>25.300222999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>45.016404999999999</v>
+        <v>44.781457000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>1.4691270000000001</v>
+        <v>1.4492430000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>3.8389E-2</v>
+        <v>3.2890999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5560,19 +5560,19 @@
         <v>300000</v>
       </c>
       <c r="B27" s="1">
-        <v>293.33332799999999</v>
+        <v>292.79315400000002</v>
       </c>
       <c r="C27" s="1">
-        <v>57.578657999999997</v>
+        <v>57.331457999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>101.632762</v>
+        <v>100.789835</v>
       </c>
       <c r="E27" s="1">
-        <v>2.2910560000000002</v>
+        <v>2.155338</v>
       </c>
       <c r="F27" s="1">
-        <v>4.9097000000000002E-2</v>
+        <v>4.7337999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5580,19 +5580,19 @@
         <v>400000</v>
       </c>
       <c r="B28" s="1">
-        <v>523.598344</v>
+        <v>521.11933599999998</v>
       </c>
       <c r="C28" s="1">
-        <v>102.60269</v>
+        <v>101.807485</v>
       </c>
       <c r="D28" s="1">
-        <v>180.72149300000001</v>
+        <v>179.243515</v>
       </c>
       <c r="E28" s="1">
-        <v>3.0213960000000002</v>
+        <v>2.906393</v>
       </c>
       <c r="F28" s="1">
-        <v>7.6203000000000007E-2</v>
+        <v>6.8249000000000004E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5600,19 +5600,19 @@
         <v>500000</v>
       </c>
       <c r="B29" s="1">
-        <v>818.87141499999996</v>
+        <v>811.097666</v>
       </c>
       <c r="C29" s="1">
-        <v>161.356437</v>
+        <v>160.027479</v>
       </c>
       <c r="D29" s="1">
-        <v>282.91280599999999</v>
+        <v>280.441844</v>
       </c>
       <c r="E29" s="1">
-        <v>3.8757890000000002</v>
+        <v>3.6280480000000002</v>
       </c>
       <c r="F29" s="1">
-        <v>8.7329000000000004E-2</v>
+        <v>8.5042000000000006E-2</v>
       </c>
     </row>
   </sheetData>
